--- a/kupci_pregled_dugovanja.xlsx
+++ b/kupci_pregled_dugovanja.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="kupci_pregled_dugovanja" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Header" vbProcedure="false">kupci_pregled_dugovanja!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" name="Sql1" vbProcedure="false">kupci_pregled_dugovanja!$A$2:$I$2</definedName>
+    <definedName function="false" hidden="false" name="Header" vbProcedure="false">kupci_pregled_dugovanja!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" name="Sql1" vbProcedure="false">kupci_pregled_dugovanja!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Konto Id</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">Naziv referenta</t>
   </si>
   <si>
+    <t xml:space="preserve">Prod.mj</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rok plaćanja</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">${referent_naz}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${prmj}</t>
   </si>
   <si>
     <t xml:space="preserve">${rok_pl}</t>
@@ -87,7 +93,7 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
   <fonts count="11">
@@ -279,39 +285,38 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.69387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.10714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2142857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="13.3112244897959"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.66"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,10 +335,10 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -342,42 +347,46 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AMJ1" s="0"/>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" s="14" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AMJ2" s="0"/>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.435416666666667" right="0.40625" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
